--- a/data/pca/factorExposure/factorExposure_2016-09-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-09-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.008503726361238683</v>
+        <v>0.01357063976455698</v>
       </c>
       <c r="C2">
-        <v>0.0508361954514245</v>
+        <v>0.04291910125757381</v>
       </c>
       <c r="D2">
-        <v>0.03413932969080154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.066377511165054</v>
+      </c>
+      <c r="E2">
+        <v>-0.05336603490526349</v>
+      </c>
+      <c r="F2">
+        <v>0.08565410343359053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.05762965095204253</v>
+        <v>0.0324999593920982</v>
       </c>
       <c r="C3">
-        <v>0.1011054257082375</v>
+        <v>0.0806820625689597</v>
       </c>
       <c r="D3">
-        <v>0.06582345619525962</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09507468843535942</v>
+      </c>
+      <c r="E3">
+        <v>-0.06323812538813051</v>
+      </c>
+      <c r="F3">
+        <v>0.01439878192134146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.0613641501584204</v>
+        <v>0.0570848881702863</v>
       </c>
       <c r="C4">
-        <v>0.05824664561652854</v>
+        <v>0.06522482582556551</v>
       </c>
       <c r="D4">
-        <v>0.02777072953135321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06213519823612709</v>
+      </c>
+      <c r="E4">
+        <v>-0.05037870872255084</v>
+      </c>
+      <c r="F4">
+        <v>0.08536980971660794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.03328197377170777</v>
+        <v>0.03344701516688521</v>
       </c>
       <c r="C6">
-        <v>0.03887364716007944</v>
+        <v>0.03540550529442265</v>
       </c>
       <c r="D6">
-        <v>0.03104334954818854</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06997043447782647</v>
+      </c>
+      <c r="E6">
+        <v>-0.05924551478270433</v>
+      </c>
+      <c r="F6">
+        <v>0.07106474212889208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01756673198205675</v>
+        <v>0.01924870731707449</v>
       </c>
       <c r="C7">
-        <v>0.03950317533826785</v>
+        <v>0.03667152600975045</v>
       </c>
       <c r="D7">
-        <v>-0.001943722933679932</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03927642074831083</v>
+      </c>
+      <c r="E7">
+        <v>-0.0327607894173152</v>
+      </c>
+      <c r="F7">
+        <v>0.1081117303924949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.001336810934245318</v>
+        <v>0.003953134703662039</v>
       </c>
       <c r="C8">
-        <v>0.02200346195199199</v>
+        <v>0.0277774979961301</v>
       </c>
       <c r="D8">
-        <v>0.03223295156299869</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03672580406239639</v>
+      </c>
+      <c r="E8">
+        <v>-0.04200119832314491</v>
+      </c>
+      <c r="F8">
+        <v>0.05270165512521494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03106137718638201</v>
+        <v>0.03648233581918405</v>
       </c>
       <c r="C9">
-        <v>0.04171697019794234</v>
+        <v>0.05162227816100483</v>
       </c>
       <c r="D9">
-        <v>0.01675302105266092</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0475600420268967</v>
+      </c>
+      <c r="E9">
+        <v>-0.04442101592818132</v>
+      </c>
+      <c r="F9">
+        <v>0.09060473782903608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07335035526432129</v>
+        <v>0.1015241736152726</v>
       </c>
       <c r="C10">
-        <v>-0.1938066961094939</v>
+        <v>-0.1918978047281882</v>
       </c>
       <c r="D10">
-        <v>0.006440836049117313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0003472156225323592</v>
+      </c>
+      <c r="E10">
+        <v>-0.04590423023742436</v>
+      </c>
+      <c r="F10">
+        <v>0.0389265320902679</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.0363536021054154</v>
+        <v>0.03522411872916096</v>
       </c>
       <c r="C11">
-        <v>0.05481212393865781</v>
+        <v>0.05113262232998758</v>
       </c>
       <c r="D11">
-        <v>0.007259970787042455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03481443610880831</v>
+      </c>
+      <c r="E11">
+        <v>-0.00559574151401037</v>
+      </c>
+      <c r="F11">
+        <v>0.06543363428149446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03377995074653569</v>
+        <v>0.03572527734052813</v>
       </c>
       <c r="C12">
-        <v>0.04611118630664365</v>
+        <v>0.04734600622662409</v>
       </c>
       <c r="D12">
-        <v>0.003229971477005649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02641356899545675</v>
+      </c>
+      <c r="E12">
+        <v>-0.01477508850298019</v>
+      </c>
+      <c r="F12">
+        <v>0.06693708125707443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01286460192341209</v>
+        <v>0.01206136419353242</v>
       </c>
       <c r="C13">
-        <v>0.04035710077237952</v>
+        <v>0.04005391843850629</v>
       </c>
       <c r="D13">
-        <v>0.02092840220035002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06588209246377093</v>
+      </c>
+      <c r="E13">
+        <v>-0.06359612598643481</v>
+      </c>
+      <c r="F13">
+        <v>0.1145401992723104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.005694544843295862</v>
+        <v>0.005447646295582875</v>
       </c>
       <c r="C14">
-        <v>0.03236995596574188</v>
+        <v>0.02932112642091982</v>
       </c>
       <c r="D14">
-        <v>-0.01449752108422933</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03071164844870121</v>
+      </c>
+      <c r="E14">
+        <v>-0.0280312198098641</v>
+      </c>
+      <c r="F14">
+        <v>0.09869809328001497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001437606524475768</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.002969578282831118</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.003665710606881337</v>
+      </c>
+      <c r="E15">
+        <v>-0.0002318080731692259</v>
+      </c>
+      <c r="F15">
+        <v>0.002537623860232836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03296769230666888</v>
+        <v>0.03280940469179535</v>
       </c>
       <c r="C16">
-        <v>0.04292760675476628</v>
+        <v>0.04546530179048877</v>
       </c>
       <c r="D16">
-        <v>0.008905721692952361</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.03002232654414127</v>
+      </c>
+      <c r="E16">
+        <v>-0.02017225507601302</v>
+      </c>
+      <c r="F16">
+        <v>0.06903661271389423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02346439749754526</v>
+        <v>0.01622495040337292</v>
       </c>
       <c r="C19">
-        <v>0.05796325964616648</v>
+        <v>0.04974797661120415</v>
       </c>
       <c r="D19">
-        <v>0.07450179213076769</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1008531318080268</v>
+      </c>
+      <c r="E19">
+        <v>-0.08026376280898434</v>
+      </c>
+      <c r="F19">
+        <v>0.09281312715324083</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01381380636555001</v>
+        <v>0.01340296565131597</v>
       </c>
       <c r="C20">
-        <v>0.04337687915702116</v>
+        <v>0.04019342626294321</v>
       </c>
       <c r="D20">
-        <v>0.02030445418131786</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04347515503892874</v>
+      </c>
+      <c r="E20">
+        <v>-0.05745532362419826</v>
+      </c>
+      <c r="F20">
+        <v>0.08924039088326358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.009106428036801098</v>
+        <v>0.008127198420641864</v>
       </c>
       <c r="C21">
-        <v>0.04895844574664297</v>
+        <v>0.04469003349071527</v>
       </c>
       <c r="D21">
-        <v>0.03672047133796039</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07356068730132391</v>
+      </c>
+      <c r="E21">
+        <v>-0.0749708814272986</v>
+      </c>
+      <c r="F21">
+        <v>0.1346978016104215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0004605043220146277</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02278279264644306</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03498190569776923</v>
+      </c>
+      <c r="E22">
+        <v>-0.01750001556655249</v>
+      </c>
+      <c r="F22">
+        <v>0.0174003839276127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0005280164659299465</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0229115703457335</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03467674417056627</v>
+      </c>
+      <c r="E23">
+        <v>-0.01779416994816435</v>
+      </c>
+      <c r="F23">
+        <v>0.01728118936768876</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.0274231089977202</v>
+        <v>0.03194900831464698</v>
       </c>
       <c r="C24">
-        <v>0.0480772253010446</v>
+        <v>0.05306189900019598</v>
       </c>
       <c r="D24">
-        <v>0.004987441857544017</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02818959547524789</v>
+      </c>
+      <c r="E24">
+        <v>-0.017659086283897</v>
+      </c>
+      <c r="F24">
+        <v>0.0770546362305474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04172565623399885</v>
+        <v>0.04225141849392133</v>
       </c>
       <c r="C25">
-        <v>0.05979931410967658</v>
+        <v>0.05781273075034315</v>
       </c>
       <c r="D25">
-        <v>-0.004778551196588219</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0260407819770824</v>
+      </c>
+      <c r="E25">
+        <v>-0.01281512765736195</v>
+      </c>
+      <c r="F25">
+        <v>0.07974475352635894</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01224693283327924</v>
+        <v>0.01350981617335951</v>
       </c>
       <c r="C26">
-        <v>0.01641753863792303</v>
+        <v>0.01605946095335152</v>
       </c>
       <c r="D26">
-        <v>0.0008948626254547381</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02748360814575531</v>
+      </c>
+      <c r="E26">
+        <v>-0.03000803983281248</v>
+      </c>
+      <c r="F26">
+        <v>0.0742297207426152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.08536387433718783</v>
+        <v>0.1363793620318602</v>
       </c>
       <c r="C28">
-        <v>-0.2210487859506574</v>
+        <v>-0.241411707525828</v>
       </c>
       <c r="D28">
-        <v>0.004991677034765461</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01592003615423968</v>
+      </c>
+      <c r="E28">
+        <v>-0.04827426598897121</v>
+      </c>
+      <c r="F28">
+        <v>0.05229501598210113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.008692426917734853</v>
+        <v>0.0064338155448833</v>
       </c>
       <c r="C29">
-        <v>0.02573291927059923</v>
+        <v>0.02542163329244384</v>
       </c>
       <c r="D29">
-        <v>-0.01481565689068792</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02490524376393822</v>
+      </c>
+      <c r="E29">
+        <v>-0.03046265571874738</v>
+      </c>
+      <c r="F29">
+        <v>0.09070857569366279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.04837681563364821</v>
+        <v>0.04052387541746444</v>
       </c>
       <c r="C30">
-        <v>0.05906264155998606</v>
+        <v>0.06454163263764777</v>
       </c>
       <c r="D30">
-        <v>0.05033119077980516</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.109370414248625</v>
+      </c>
+      <c r="E30">
+        <v>-0.04147951281254113</v>
+      </c>
+      <c r="F30">
+        <v>0.1019858955514735</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04839048136261589</v>
+        <v>0.05434932245809605</v>
       </c>
       <c r="C31">
-        <v>0.03267299641070581</v>
+        <v>0.05369483052722769</v>
       </c>
       <c r="D31">
-        <v>-0.007641519575055057</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.006266352046086379</v>
+      </c>
+      <c r="E31">
+        <v>-0.04954260168753614</v>
+      </c>
+      <c r="F31">
+        <v>0.08108106260817431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.00514078253076022</v>
+        <v>0.00446500921192607</v>
       </c>
       <c r="C32">
-        <v>0.04580663368795661</v>
+        <v>0.03281924313513107</v>
       </c>
       <c r="D32">
-        <v>0.02156829863643534</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05123653226696683</v>
+      </c>
+      <c r="E32">
+        <v>-0.02335711399278452</v>
+      </c>
+      <c r="F32">
+        <v>0.07201637583395502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02726905808063387</v>
+        <v>0.02406614334210479</v>
       </c>
       <c r="C33">
-        <v>0.05842919441853135</v>
+        <v>0.05369577943665901</v>
       </c>
       <c r="D33">
-        <v>0.03504611163661443</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08444322030598632</v>
+      </c>
+      <c r="E33">
+        <v>-0.05155559135405223</v>
+      </c>
+      <c r="F33">
+        <v>0.1277780781250071</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04384369539141561</v>
+        <v>0.04025868274287622</v>
       </c>
       <c r="C34">
-        <v>0.05852196775439828</v>
+        <v>0.06340226878740335</v>
       </c>
       <c r="D34">
-        <v>-0.002118432817535879</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03507131465274964</v>
+      </c>
+      <c r="E34">
+        <v>0.00611214397688835</v>
+      </c>
+      <c r="F34">
+        <v>0.07557710359671505</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.008651297587881981</v>
+        <v>0.0137561947649443</v>
       </c>
       <c r="C36">
-        <v>0.01358565031686335</v>
+        <v>0.01164812553025335</v>
       </c>
       <c r="D36">
-        <v>0.00245045611904373</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03032854792753377</v>
+      </c>
+      <c r="E36">
+        <v>-0.03654789142798773</v>
+      </c>
+      <c r="F36">
+        <v>0.08240788398815867</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.03185659746803891</v>
+        <v>0.02518396394844307</v>
       </c>
       <c r="C38">
-        <v>0.02878643122796422</v>
+        <v>0.02514183282431036</v>
       </c>
       <c r="D38">
-        <v>0.002388226970758808</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0281187748092713</v>
+      </c>
+      <c r="E38">
+        <v>-0.0358692118294193</v>
+      </c>
+      <c r="F38">
+        <v>0.0658216652302174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.03923536165631371</v>
+        <v>0.03793079762142677</v>
       </c>
       <c r="C39">
-        <v>0.07069862193941751</v>
+        <v>0.06828245118126361</v>
       </c>
       <c r="D39">
-        <v>0.02340993952658269</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05380392309313541</v>
+      </c>
+      <c r="E39">
+        <v>-0.01911812564377459</v>
+      </c>
+      <c r="F39">
+        <v>0.09069232914169741</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01670092169967212</v>
+        <v>0.0167151133027922</v>
       </c>
       <c r="C40">
-        <v>0.03053695608225192</v>
+        <v>0.0368437036306565</v>
       </c>
       <c r="D40">
-        <v>0.03591199876232411</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.04378672785827533</v>
+      </c>
+      <c r="E40">
+        <v>-0.07447521101700555</v>
+      </c>
+      <c r="F40">
+        <v>0.08969994818256462</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.00901621908505295</v>
+        <v>0.01808995192733068</v>
       </c>
       <c r="C41">
-        <v>0.006488506356319981</v>
+        <v>0.005809358082665412</v>
       </c>
       <c r="D41">
-        <v>0.001347965712587708</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01907358128213125</v>
+      </c>
+      <c r="E41">
+        <v>-0.03874684783488808</v>
+      </c>
+      <c r="F41">
+        <v>0.07128069053844906</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.002667488590751413</v>
+        <v>0.001760059347663401</v>
       </c>
       <c r="C42">
-        <v>0.005264868571322611</v>
+        <v>0.002873109321664294</v>
       </c>
       <c r="D42">
-        <v>0.008946664755715058</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.001199902923488122</v>
+      </c>
+      <c r="E42">
+        <v>-0.008762239363968081</v>
+      </c>
+      <c r="F42">
+        <v>-0.006057021433326393</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03181287783143228</v>
+        <v>0.02945069626243643</v>
       </c>
       <c r="C43">
-        <v>0.02119764921370913</v>
+        <v>0.02105479494575584</v>
       </c>
       <c r="D43">
-        <v>0.0132606666763982</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04310265599500649</v>
+      </c>
+      <c r="E43">
+        <v>-0.04439608282180341</v>
+      </c>
+      <c r="F43">
+        <v>0.08361462834132899</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.01566103050552698</v>
+        <v>0.01420145796492805</v>
       </c>
       <c r="C44">
-        <v>0.05833810685629433</v>
+        <v>0.05140034469235209</v>
       </c>
       <c r="D44">
-        <v>0.01745946811663652</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04223243938277638</v>
+      </c>
+      <c r="E44">
+        <v>-0.05798551081298826</v>
+      </c>
+      <c r="F44">
+        <v>0.08991044288595001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>7.186499688685748e-06</v>
+        <v>0.007421834996227785</v>
       </c>
       <c r="C46">
-        <v>0.02294373821471668</v>
+        <v>0.02477406449384549</v>
       </c>
       <c r="D46">
-        <v>-0.01844248422255556</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01488663934620008</v>
+      </c>
+      <c r="E46">
+        <v>-0.03610462140054518</v>
+      </c>
+      <c r="F46">
+        <v>0.1042224887806086</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.07999675986099486</v>
+        <v>0.08563139086698474</v>
       </c>
       <c r="C47">
-        <v>0.07096275781232143</v>
+        <v>0.08078885777628091</v>
       </c>
       <c r="D47">
-        <v>-0.00469903384271479</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01533182966397836</v>
+      </c>
+      <c r="E47">
+        <v>-0.05532750302173713</v>
+      </c>
+      <c r="F47">
+        <v>0.07832377272890712</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.0176256450621828</v>
+        <v>0.01573707673555156</v>
       </c>
       <c r="C48">
-        <v>0.01193052599689193</v>
+        <v>0.01718742031298369</v>
       </c>
       <c r="D48">
-        <v>-0.005170513556747171</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02018524629232571</v>
+      </c>
+      <c r="E48">
+        <v>-0.0469157238708803</v>
+      </c>
+      <c r="F48">
+        <v>0.09619480758698132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08753046104580813</v>
+        <v>0.07239679593655431</v>
       </c>
       <c r="C50">
-        <v>0.06800949232829265</v>
+        <v>0.07047984492525007</v>
       </c>
       <c r="D50">
-        <v>-0.01437473738828068</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002868781820767113</v>
+      </c>
+      <c r="E50">
+        <v>-0.05280818460458515</v>
+      </c>
+      <c r="F50">
+        <v>0.06805611214705119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01060721003102976</v>
+        <v>0.01038751148173261</v>
       </c>
       <c r="C51">
-        <v>0.04642704145468089</v>
+        <v>0.03310068802428984</v>
       </c>
       <c r="D51">
-        <v>0.009664746990738006</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05070495234254025</v>
+      </c>
+      <c r="E51">
+        <v>-0.02218061987498285</v>
+      </c>
+      <c r="F51">
+        <v>0.08644711958920324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.08184701407241171</v>
+        <v>0.09174733516558579</v>
       </c>
       <c r="C53">
-        <v>0.07452703248944202</v>
+        <v>0.08843130916298098</v>
       </c>
       <c r="D53">
-        <v>-0.02266630491614803</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03727388758639212</v>
+      </c>
+      <c r="E53">
+        <v>-0.05450929086900089</v>
+      </c>
+      <c r="F53">
+        <v>0.08778329098265752</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03072183246381232</v>
+        <v>0.02755915560658789</v>
       </c>
       <c r="C54">
-        <v>0.0198681550659778</v>
+        <v>0.02671635141473369</v>
       </c>
       <c r="D54">
-        <v>0.002164334266369371</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03345319422639863</v>
+      </c>
+      <c r="E54">
+        <v>-0.04092435625528056</v>
+      </c>
+      <c r="F54">
+        <v>0.09501199159076361</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07134906773134618</v>
+        <v>0.08259807091992347</v>
       </c>
       <c r="C55">
-        <v>0.06505345059329429</v>
+        <v>0.07195189649860358</v>
       </c>
       <c r="D55">
-        <v>-0.02652595445516923</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04454799960393354</v>
+      </c>
+      <c r="E55">
+        <v>-0.04467585463122706</v>
+      </c>
+      <c r="F55">
+        <v>0.06381873181898572</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1480093787120506</v>
+        <v>0.1441206873063166</v>
       </c>
       <c r="C56">
-        <v>0.09235944043266274</v>
+        <v>0.1064972612148197</v>
       </c>
       <c r="D56">
-        <v>-0.02965808520641049</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04798661011547531</v>
+      </c>
+      <c r="E56">
+        <v>-0.04889026076696242</v>
+      </c>
+      <c r="F56">
+        <v>0.04992695339672377</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.001406960430033676</v>
+        <v>0.0005032286507866242</v>
       </c>
       <c r="C57">
-        <v>0.003486436953035037</v>
+        <v>0.001948168719773322</v>
       </c>
       <c r="D57">
-        <v>0.01786852087872561</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01615575188415237</v>
+      </c>
+      <c r="E57">
+        <v>-0.00762472901291485</v>
+      </c>
+      <c r="F57">
+        <v>0.01157087675425322</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07437780198725878</v>
+        <v>0.0308176112141137</v>
       </c>
       <c r="C58">
-        <v>0.02293208392003458</v>
+        <v>0.03969252837929874</v>
       </c>
       <c r="D58">
-        <v>0.9422183745341789</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4932566259380737</v>
+      </c>
+      <c r="E58">
+        <v>-0.6721492745128358</v>
+      </c>
+      <c r="F58">
+        <v>-0.4721308329918857</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1351468313839617</v>
+        <v>0.1487438101868063</v>
       </c>
       <c r="C59">
-        <v>-0.2048843877847631</v>
+        <v>-0.1857850002230792</v>
       </c>
       <c r="D59">
-        <v>0.01733672865624665</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03097245879960775</v>
+      </c>
+      <c r="E59">
+        <v>-0.02535727633916641</v>
+      </c>
+      <c r="F59">
+        <v>0.01971971671303313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3134297056445526</v>
+        <v>0.2819502405492784</v>
       </c>
       <c r="C60">
-        <v>0.0906723963379239</v>
+        <v>0.09915263786702137</v>
       </c>
       <c r="D60">
-        <v>-0.003921780552994021</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2002086706067355</v>
+      </c>
+      <c r="E60">
+        <v>0.2810808623471342</v>
+      </c>
+      <c r="F60">
+        <v>-0.1101452944185561</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03678805075245522</v>
+        <v>0.03959795774069327</v>
       </c>
       <c r="C61">
-        <v>0.06390790616718293</v>
+        <v>0.06189390160672582</v>
       </c>
       <c r="D61">
-        <v>0.01263573340890436</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04808949277374477</v>
+      </c>
+      <c r="E61">
+        <v>-0.02302813877583245</v>
+      </c>
+      <c r="F61">
+        <v>0.0813827152937934</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01405046820852124</v>
+        <v>0.0145439027352946</v>
       </c>
       <c r="C63">
-        <v>0.03578898216402671</v>
+        <v>0.03160306361366102</v>
       </c>
       <c r="D63">
-        <v>8.673430301868699e-05</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02489801987330504</v>
+      </c>
+      <c r="E63">
+        <v>-0.03908717190869632</v>
+      </c>
+      <c r="F63">
+        <v>0.07585543025949057</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.0523767494520727</v>
+        <v>0.05572057211677343</v>
       </c>
       <c r="C64">
-        <v>0.03399549847700995</v>
+        <v>0.0547643346384035</v>
       </c>
       <c r="D64">
-        <v>-0.006269643529896266</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.008356747569851003</v>
+      </c>
+      <c r="E64">
+        <v>-0.02327806600629151</v>
+      </c>
+      <c r="F64">
+        <v>0.08982473581653801</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09058461619848063</v>
+        <v>0.06671455302389788</v>
       </c>
       <c r="C65">
-        <v>0.04073627051886364</v>
+        <v>0.03867971634120922</v>
       </c>
       <c r="D65">
-        <v>0.03807391795774797</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08698409248511284</v>
+      </c>
+      <c r="E65">
+        <v>-0.03193499051671362</v>
+      </c>
+      <c r="F65">
+        <v>0.02318420107613402</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.05968050510718313</v>
+        <v>0.04993727050385188</v>
       </c>
       <c r="C66">
-        <v>0.1054873283018395</v>
+        <v>0.09130876805258993</v>
       </c>
       <c r="D66">
-        <v>0.03442601200710085</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08094577917076869</v>
+      </c>
+      <c r="E66">
+        <v>-0.02080774612925365</v>
+      </c>
+      <c r="F66">
+        <v>0.09223368666942736</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05517070348094982</v>
+        <v>0.04780000268102615</v>
       </c>
       <c r="C67">
-        <v>0.03368044510169666</v>
+        <v>0.03102579971671222</v>
       </c>
       <c r="D67">
-        <v>-0.003674933792443571</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01435323921605971</v>
+      </c>
+      <c r="E67">
+        <v>-0.01969218391621855</v>
+      </c>
+      <c r="F67">
+        <v>0.05195060106747569</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1108173840143194</v>
+        <v>0.153651512803222</v>
       </c>
       <c r="C68">
-        <v>-0.2865331171114286</v>
+        <v>-0.2499756442497857</v>
       </c>
       <c r="D68">
-        <v>-0.0007777186352315909</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01840989606244292</v>
+      </c>
+      <c r="E68">
+        <v>-0.04203099666651688</v>
+      </c>
+      <c r="F68">
+        <v>0.01753713141455058</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08588811615840092</v>
+        <v>0.08689429934820615</v>
       </c>
       <c r="C69">
-        <v>0.0657998312578206</v>
+        <v>0.08660775021151364</v>
       </c>
       <c r="D69">
-        <v>-0.03012978986596527</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008746896832568652</v>
+      </c>
+      <c r="E69">
+        <v>-0.03230716909689328</v>
+      </c>
+      <c r="F69">
+        <v>0.09740056777225098</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1172620944298268</v>
+        <v>0.1460631511350202</v>
       </c>
       <c r="C71">
-        <v>-0.250167981259929</v>
+        <v>-0.2315282973195607</v>
       </c>
       <c r="D71">
-        <v>0.0259918809504495</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01515171623319765</v>
+      </c>
+      <c r="E71">
+        <v>-0.06040711103169902</v>
+      </c>
+      <c r="F71">
+        <v>0.05533891108070986</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08534824953023022</v>
+        <v>0.09585000251385162</v>
       </c>
       <c r="C72">
-        <v>0.04940508044296092</v>
+        <v>0.057718400476007</v>
       </c>
       <c r="D72">
-        <v>-0.0100566988846344</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02102377202408576</v>
+      </c>
+      <c r="E72">
+        <v>-0.01100489862800255</v>
+      </c>
+      <c r="F72">
+        <v>0.08259206196176587</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4395632314611559</v>
+        <v>0.3463063154723096</v>
       </c>
       <c r="C73">
-        <v>0.06149597434088341</v>
+        <v>0.08049379274083882</v>
       </c>
       <c r="D73">
-        <v>0.06852293566208256</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4217823078121827</v>
+      </c>
+      <c r="E73">
+        <v>0.4946790040072603</v>
+      </c>
+      <c r="F73">
+        <v>-0.2901317681936338</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.112928210603096</v>
+        <v>0.1099450084152031</v>
       </c>
       <c r="C74">
-        <v>0.1134860389127103</v>
+        <v>0.1021200792365815</v>
       </c>
       <c r="D74">
-        <v>-0.004189294913559361</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02745162351820678</v>
+      </c>
+      <c r="E74">
+        <v>-0.0639553934428827</v>
+      </c>
+      <c r="F74">
+        <v>0.05535370521932505</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2496561765025976</v>
+        <v>0.2544938920466909</v>
       </c>
       <c r="C75">
-        <v>0.1170169832756679</v>
+        <v>0.1408068528118002</v>
       </c>
       <c r="D75">
-        <v>-0.04779668506726318</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1278877136246305</v>
+      </c>
+      <c r="E75">
+        <v>-0.07522442952448119</v>
+      </c>
+      <c r="F75">
+        <v>0.01788664012424963</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1122617096716425</v>
+        <v>0.1269441439875783</v>
       </c>
       <c r="C76">
-        <v>0.1012247330236395</v>
+        <v>0.1057069003395805</v>
       </c>
       <c r="D76">
-        <v>-0.02685350501172076</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05750559218470692</v>
+      </c>
+      <c r="E76">
+        <v>-0.0686144692310668</v>
+      </c>
+      <c r="F76">
+        <v>0.06625163716541152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07745913885476934</v>
+        <v>0.0610849161521868</v>
       </c>
       <c r="C77">
-        <v>0.05744305216278234</v>
+        <v>0.06779487643498648</v>
       </c>
       <c r="D77">
-        <v>0.04589624302330704</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06570798632236152</v>
+      </c>
+      <c r="E77">
+        <v>-0.0667896402755053</v>
+      </c>
+      <c r="F77">
+        <v>0.1097413233041754</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04419222342640122</v>
+        <v>0.04298545646003069</v>
       </c>
       <c r="C78">
-        <v>0.04277474071083577</v>
+        <v>0.05402178197694064</v>
       </c>
       <c r="D78">
-        <v>0.01699115653135387</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07424333644272793</v>
+      </c>
+      <c r="E78">
+        <v>-0.02311499372876031</v>
+      </c>
+      <c r="F78">
+        <v>0.1044234381048744</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.0225732724196459</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03945917416486452</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05798799627283832</v>
+      </c>
+      <c r="E79">
+        <v>-0.05060612895523386</v>
+      </c>
+      <c r="F79">
+        <v>0.03389047280360849</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04426601139948443</v>
+        <v>0.03295392277176371</v>
       </c>
       <c r="C80">
-        <v>0.05365460985590136</v>
+        <v>0.05374825488664082</v>
       </c>
       <c r="D80">
-        <v>0.02790319381623468</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04840712395330574</v>
+      </c>
+      <c r="E80">
+        <v>-0.007154575646772506</v>
+      </c>
+      <c r="F80">
+        <v>0.03086315103405735</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1432150066970244</v>
+        <v>0.1391916708311685</v>
       </c>
       <c r="C81">
-        <v>0.07788734575038662</v>
+        <v>0.09875073765364456</v>
       </c>
       <c r="D81">
-        <v>-0.02190166039054364</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09383825498387691</v>
+      </c>
+      <c r="E81">
+        <v>-0.08290009080956283</v>
+      </c>
+      <c r="F81">
+        <v>0.02218361306721051</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1253917136881542</v>
+        <v>0.1944267806378916</v>
       </c>
       <c r="C82">
-        <v>0.05975741704375993</v>
+        <v>0.139784726316209</v>
       </c>
       <c r="D82">
-        <v>-0.110622801999889</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2271725496183157</v>
+      </c>
+      <c r="E82">
+        <v>-0.01819596683971242</v>
+      </c>
+      <c r="F82">
+        <v>0.08748197818961917</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.03205242082337771</v>
+        <v>0.02642452176342712</v>
       </c>
       <c r="C83">
-        <v>0.0193608831385263</v>
+        <v>0.04054499730976985</v>
       </c>
       <c r="D83">
-        <v>0.01692288018338184</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03612958230519185</v>
+      </c>
+      <c r="E83">
+        <v>-0.008795267447184502</v>
+      </c>
+      <c r="F83">
+        <v>0.04694058127748128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2285494365881358</v>
+        <v>0.2043019940565764</v>
       </c>
       <c r="C85">
-        <v>0.1130986712594062</v>
+        <v>0.1262418327768189</v>
       </c>
       <c r="D85">
-        <v>-0.09063427113948937</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1045880987765651</v>
+      </c>
+      <c r="E85">
+        <v>-0.007387956748083893</v>
+      </c>
+      <c r="F85">
+        <v>-0.02158727507100296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.003466735930185361</v>
+        <v>0.01195185353499568</v>
       </c>
       <c r="C86">
-        <v>0.02288062952818056</v>
+        <v>0.03045947286682781</v>
       </c>
       <c r="D86">
-        <v>0.02810541859073834</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0739517950684427</v>
+      </c>
+      <c r="E86">
+        <v>-0.04454502525077161</v>
+      </c>
+      <c r="F86">
+        <v>0.1390912405837016</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01725718673094004</v>
+        <v>0.01983903752482881</v>
       </c>
       <c r="C87">
-        <v>0.01861104470160543</v>
+        <v>0.0215219970022745</v>
       </c>
       <c r="D87">
-        <v>0.09212561069034667</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09419072150436764</v>
+      </c>
+      <c r="E87">
+        <v>-0.08603848663517498</v>
+      </c>
+      <c r="F87">
+        <v>0.09160722838429858</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.102169034722235</v>
+        <v>0.08988275899767331</v>
       </c>
       <c r="C88">
-        <v>0.07174413097201258</v>
+        <v>0.06424107803627464</v>
       </c>
       <c r="D88">
-        <v>-0.01364190467323179</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01212582117299434</v>
+      </c>
+      <c r="E88">
+        <v>-0.03179101562637544</v>
+      </c>
+      <c r="F88">
+        <v>0.06830115934420174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1858192124115392</v>
+        <v>0.2285393574453435</v>
       </c>
       <c r="C89">
-        <v>-0.3765597380241396</v>
+        <v>-0.3785785335768627</v>
       </c>
       <c r="D89">
-        <v>-0.02522042745615065</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01236860422127972</v>
+      </c>
+      <c r="E89">
+        <v>-0.04185963233791117</v>
+      </c>
+      <c r="F89">
+        <v>0.09967198971858916</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1739687579339728</v>
+        <v>0.2054631649472888</v>
       </c>
       <c r="C90">
-        <v>-0.3436189165563088</v>
+        <v>-0.3130265915631159</v>
       </c>
       <c r="D90">
-        <v>-0.01187137673737266</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01249766239658408</v>
+      </c>
+      <c r="E90">
+        <v>-0.06629872970193294</v>
+      </c>
+      <c r="F90">
+        <v>0.04815355042016684</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1986468069331863</v>
+        <v>0.1879856972306439</v>
       </c>
       <c r="C91">
-        <v>0.1129893411029635</v>
+        <v>0.1416336739689069</v>
       </c>
       <c r="D91">
-        <v>-0.04392594794621411</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1013834218688783</v>
+      </c>
+      <c r="E91">
+        <v>-0.07225062005560803</v>
+      </c>
+      <c r="F91">
+        <v>0.04297410685837636</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1692024889615778</v>
+        <v>0.1854762711107462</v>
       </c>
       <c r="C92">
-        <v>-0.2899061704324186</v>
+        <v>-0.2791996797955876</v>
       </c>
       <c r="D92">
-        <v>-0.01060453824675364</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.003724301152083365</v>
+      </c>
+      <c r="E92">
+        <v>-0.07054678764210923</v>
+      </c>
+      <c r="F92">
+        <v>0.07095638746135202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.2006311920722706</v>
+        <v>0.229095389135869</v>
       </c>
       <c r="C93">
-        <v>-0.3431529043948974</v>
+        <v>-0.3180968857755735</v>
       </c>
       <c r="D93">
-        <v>0.0009711214392209001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.000645788308168402</v>
+      </c>
+      <c r="E93">
+        <v>-0.05042174437653269</v>
+      </c>
+      <c r="F93">
+        <v>0.0431889042098484</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.319821530753517</v>
+        <v>0.33957466452104</v>
       </c>
       <c r="C94">
-        <v>0.1690521955309563</v>
+        <v>0.193308926236602</v>
       </c>
       <c r="D94">
-        <v>-0.1780313678571848</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4753936533059744</v>
+      </c>
+      <c r="E94">
+        <v>-0.1492884823154176</v>
+      </c>
+      <c r="F94">
+        <v>-0.437337045041451</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09028787571648367</v>
+        <v>0.08225809759240901</v>
       </c>
       <c r="C95">
-        <v>0.05526287867192121</v>
+        <v>0.07050453658407319</v>
       </c>
       <c r="D95">
-        <v>0.03869704776191973</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1553545428977104</v>
+      </c>
+      <c r="E95">
+        <v>0.1340136127872157</v>
+      </c>
+      <c r="F95">
+        <v>0.1755620224254696</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1958780223044566</v>
+        <v>0.188519505081726</v>
       </c>
       <c r="C98">
-        <v>0.0170935710517049</v>
+        <v>0.04194415069183154</v>
       </c>
       <c r="D98">
-        <v>0.0421892751588392</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1727591109624308</v>
+      </c>
+      <c r="E98">
+        <v>0.1586475616527191</v>
+      </c>
+      <c r="F98">
+        <v>-0.03820931148752126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.008431062529384995</v>
+        <v>0.006317517977680789</v>
       </c>
       <c r="C101">
-        <v>0.02587420863918949</v>
+        <v>0.02517625209607571</v>
       </c>
       <c r="D101">
-        <v>-0.01507154296067505</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02424661320611732</v>
+      </c>
+      <c r="E101">
+        <v>-0.0309406644070308</v>
+      </c>
+      <c r="F101">
+        <v>0.09022430541334665</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1218358953697247</v>
+        <v>0.1222409010510374</v>
       </c>
       <c r="C102">
-        <v>0.07295272384231963</v>
+        <v>0.100974071975892</v>
       </c>
       <c r="D102">
-        <v>-0.03128780198447211</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05093767656980521</v>
+      </c>
+      <c r="E102">
+        <v>0.007747867840023527</v>
+      </c>
+      <c r="F102">
+        <v>0.04081136205330227</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
